--- a/src/Controllers/Sheet/report.xlsx
+++ b/src/Controllers/Sheet/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B87FDD-9DBA-4EE4-BD3A-4548F49163DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D25A2-A6C1-4D7D-AA3E-9D97375EB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}" activeTab="0"/>
   </bookViews>
@@ -49,6 +49,9 @@
     <t>Data das cotações</t>
   </si>
   <si>
+    <t>Horário do relatório</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dólar</t>
   </si>
   <si>
@@ -137,13 +140,18 @@
   </si>
   <si>
     <t xml:space="preserve">01/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts/>
+  <numFmts>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,13 +225,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,12 +554,13 @@
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -567,197 +579,197 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
         <v>5.68</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.27</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.27</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
         <v>4.59</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
         <v>6.59</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
         <v>6.25</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
         <v>0.0498</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
         <v>7.76</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
         <v>0.057</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.007</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.0015</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.27</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.89</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" t="s" s="5">
+      <c r="C15" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" t="s" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="7">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/Controllers/Sheet/report.xlsx
+++ b/src/Controllers/Sheet/report.xlsx
@@ -139,10 +139,10 @@
     <t xml:space="preserve">CNY</t>
   </si>
   <si>
-    <t xml:space="preserve">01/11/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:41</t>
+    <t xml:space="preserve">02/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03</t>
   </si>
 </sst>
 </file>
